--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2061.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2061.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.165951346399055</v>
+        <v>0.5833103656768799</v>
       </c>
       <c r="B1">
-        <v>2.836416487110039</v>
+        <v>3.550758600234985</v>
       </c>
       <c r="C1">
-        <v>4.791255408251061</v>
+        <v>4.359034061431885</v>
       </c>
       <c r="D1">
-        <v>2.895082848961624</v>
+        <v>2.565619468688965</v>
       </c>
       <c r="E1">
-        <v>1.206642408425086</v>
+        <v>1.060403227806091</v>
       </c>
     </row>
   </sheetData>
